--- a/medicine/Pharmacie/Benzisoxazole/Benzisoxazole.xlsx
+++ b/medicine/Pharmacie/Benzisoxazole/Benzisoxazole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les benzisoxazoles sont une classe de composés organiques hétérocycliques, qui se composent d'un noyau benzénique fusionné avec un cycle isoxazole.
 </t>
@@ -511,7 +523,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les molécules de cette classe sont largement utilisées en chimie et en pharmacologie en raison de leur large gamme d'activités biologiques et pharmacologiques. Ces composés ont été trouvés dans diverses classes de médicaments tels que les antipsychotiques, les anxiolytiques, les antiépileptiques, les antihistaminiques, les antitumoraux et les antiviraux. Ils agissent généralement en tant que ligands des récepteurs du système nerveux central, des canaux ioniques ou des enzymes.
 </t>
